--- a/similarities/split_global/harmonic_similarity_timestamps_135.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_135.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,706 +484,742 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>schubert-winterreise_28</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>schubert-winterreise_133</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:01:25.580000', '0:01:34.240000')]</t>
+          <t>('0:00:15.300000', '0:00:17.780000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:13.120000', '0:00:19.960000')]</t>
+          <t>('0:01:03.240000', '0:01:04.620000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=85.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-28#t=15.3</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=13.12']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=63.24</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_27</t>
+          <t>schubert-winterreise_181</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['D#:maj', 'D#:7', 'G#:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['D:maj', 'A:7', 'D:maj'], ['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>['G:maj', 'G:7/F', 'C:maj/E']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:04.300000', '0:01:05.720000'), ('0:01:02.480000', '0:01:04.920000')]</t>
+          <t>('0:00:17.980000', '0:00:26.320000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:02.360000', '0:00:11.660000'), ('0:01:00.040000', '0:01:07.080000')]</t>
+          <t>('0:00:51.800000', '0:00:59.900000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=64.3', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=62.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=17.98</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=2.36', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=60.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=51.8</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_41</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>schubert-winterreise_49</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['F', 'C:7', 'F']]</t>
+          <t>['G:min', 'D:7', 'G:min', 'G:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['F#:maj/A#', 'C#:7', 'F#:maj']]</t>
+          <t>['A:min', 'E:7/B', 'A:min/C', 'A:maj/C#']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:11.210000', '0:00:14.450000')]</t>
+          <t>('0:00:53.060000', '0:01:05.640000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:20.200000', '0:00:22.820000')]</t>
+          <t>('0:00:00.340000', '0:00:03')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-41#t=11.21']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=53.06</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=20.2']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=0.34</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_135</t>
+          <t>jaah_69</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
+          <t>schubert-winterreise_34</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:30.160000', '0:00:44.080000')]</t>
+          <t>('0:00:33.480000', '0:00:45.590000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:01:07.700000', '0:01:14.300000')]</t>
+          <t>('0:04:03.440000', '0:04:09.260000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-135#t=30.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-69#t=33.48</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-93#t=67.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=243.44</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>schubert-winterreise_126</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_194</t>
+          <t>schubert-winterreise_33</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>['D:maj', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7/D', 'C:min/D#']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:01.440000', '0:00:06.660000')]</t>
+          <t>('0:00:00.580000', '0:00:09.400000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:02', '0:00:04.320000')]</t>
+          <t>('0:01:05.440000', '0:01:06.820000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-52#t=1.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=0.58</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-194#t=2.0']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=65.44</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_49</t>
+          <t>schubert-winterreise_191</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_179</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:maj/G#', 'A:min'], ['A:min', 'E:7/B', 'A:min/C']]</t>
+          <t>['B:min', 'F#:maj/A#', 'B:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min'], ['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:10.760000', '0:00:16.080000'), ('0:00:00.340000', '0:00:02.340000')]</t>
+          <t>('0:00:13.080000', '0:00:19.340000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:00.980000', '0:00:06.140000'), ('0:02:11.200000', '0:02:16.340000')]</t>
+          <t>('0:00:01.880000', '0:00:06.560000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=10.76', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=0.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-191#t=13.08</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=0.98', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=131.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=1.88</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
+          <t>isophonics_170</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_147</t>
+          <t>isophonics_2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['Db/5', 'Ab', 'Db/5', 'Ab']]</t>
+          <t>['E:min', 'A', 'D']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A', 'E']]</t>
+          <t>['C:min', 'F:maj', 'Bb:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:04:24.615000', '0:04:35.800000')]</t>
+          <t>('0:00:47.993000', '0:00:52.587959')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:34.866000', '0:01:03.543000')]</t>
+          <t>('0:01:02.760000', '0:01:12.921000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=264.615']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-170#t=47.993</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=34.866']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=62.76</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_92</t>
+          <t>isophonics_297</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>isophonics_193</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['B:7', 'E:7', 'A']]</t>
+          <t>['G', 'D', 'G', 'D', 'E:min/b3']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['F#:7/A#', 'B:7/A', 'E:maj/G#']]</t>
+          <t>['Eb', 'Bb', 'Eb', 'Bb/3', 'C:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:22.622607', '0:00:29.751133')]</t>
+          <t>('0:00:13.172248', '0:00:17.758189')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:52.580000', '0:00:59.020000')]</t>
+          <t>('0:00:18.932000', '0:00:25.282000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-92#t=22.622607']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-297#t=13.172248</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=52.58']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=18.932</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_64</t>
+          <t>schubert-winterreise_122</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>isophonics_269</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['B:min', 'F#:maj', 'B:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['A:min', 'E', 'A:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:01:14.879000', '0:01:25.949000')]</t>
+          <t>('0:00:13.120000', '0:00:19.960000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:18.120000', '0:00:24.540000')]</t>
+          <t>('0:00:12.824000', '0:00:20.865000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-64#t=74.879']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=13.12</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=18.12']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-269#t=12.824</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_136</t>
+          <t>schubert-winterreise_131</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['Db', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:49.860000', '0:01:58.640000')]</t>
+          <t>('0:02:04.920000', '0:02:08.840000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:17.680000', '0:01:31.180000')]</t>
+          <t>('0:01:01.320000', '0:01:03.700000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=109.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=124.92</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=77.68']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=61.32</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>schubert-winterreise_8</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>schubert-winterreise_7</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:maj', 'D#:min'], ['D#:min', 'A#:7', 'D#:min']]</t>
+          <t>['A:min/E', 'E:(3,5,b7,b9)', 'A:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:13.420000', '0:00:19.500000'), ('0:01:14.800000', '0:01:21.060000')]</t>
+          <t>('0:00:32.520000', '0:00:47.400000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:00.780000', '0:00:05.980000'), ('0:00:09.100000', '0:00:13.860000')]</t>
+          <t>('0:01:01.880000', '0:01:07.800000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=13.42', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=74.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-8#t=32.52</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=0.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=9.1']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-7#t=61.88</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>schubert-winterreise_102</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
+          <t>jaah_32</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['C:maj/E', 'G:maj/D', 'A:min7/C'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['F/5', 'C:maj', 'D:min7/b7'], ['C:maj', 'F/5', 'C:maj']]</t>
+          <t>['G', 'D:7', 'G']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:11.400000', '0:01:14.700000'), ('0:00:21.580000', '0:00:29.340000')]</t>
+          <t>('0:00:16.840000', '0:00:19.460000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:04.555000', '0:00:10.619000'), ('0:00:10.619000', '0:00:16.742000')]</t>
+          <t>('0:00:11.550000', '0:00:25.740000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=71.4', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=21.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-102#t=16.84</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=4.555', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=10.619']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-32#t=11.55</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_5</t>
+          <t>isophonics_174</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_133</t>
+          <t>isophonics_8</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['G', 'A', 'D']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['A', 'B', 'E']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:09.162102', '0:00:14.073123')]</t>
+          <t>('0:00:44.836000', '0:00:49.319000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:01:01.600000', '0:01:03.840000')]</t>
+          <t>('0:00:50.046698', '0:00:55.352457')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-5#t=9.162102']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=44.836</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=61.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-8#t=50.046698</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_157</t>
+          <t>jaah_3</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>schubert-winterreise_10</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['E', 'B', 'E']]</t>
+          <t>['Eb', 'Bb:7', 'Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'G:maj']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:12.921927', '0:00:21.908049')]</t>
+          <t>('0:00:30.050000', '0:00:38.220000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:45.480000', '0:00:48')]</t>
+          <t>('0:00:00.800000', '0:00:10.540000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=12.921927']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=30.05</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=45.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=0.8</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_33</t>
+          <t>schubert-winterreise_173</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_56</t>
+          <t>isophonics_152</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
+          <t>['G:maj', 'D:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
+          <t>['A/3', 'E/5', 'A/3']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:59.640000', '0:01:02.580000')]</t>
+          <t>('0:00:43.260000', '0:00:45.660000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:21.880000', '0:00:24.860000')]</t>
+          <t>('0:00:14.168000', '0:00:18.573000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=59.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=43.26</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-56#t=21.88']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=14.168</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
